--- a/config_3.30/activity_ty_task_config.xlsx
+++ b/config_3.30/activity_ty_task_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_3.30\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="154">
   <si>
     <t>index|索引</t>
   </si>
@@ -503,14 +503,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"金龙鱼油4L","金龙鱼大米2袋"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"美的电饭锅","智能电磁炉"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_fish_drop_act_0"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -684,10 +676,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"耗牛肉酱",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在水浒消消乐中召唤出1次英雄</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -700,19 +688,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2088888,1988,"耗牛肉酱"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2088888,1988,"耗牛肉酱"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"game_MiniGame",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>"game_MiniGame",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,1988,"酥脆猴菇饼干"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,1988,"酥脆猴菇饼干"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"酥脆猴菇饼干",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"酥脆猴菇饼干",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"智能多功能锅/","小米运动手环"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"三只松鼠礼盒","进口橄榄油"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -799,7 +803,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -841,6 +845,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -873,7 +883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -942,6 +952,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1223,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1303,7 +1316,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>85</v>
@@ -1553,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1606,7 +1619,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
@@ -1643,14 +1656,14 @@
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="32">
-        <v>1000415</v>
+      <c r="B2" s="36">
+        <v>1000439</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E2" s="20">
         <v>1</v>
@@ -1659,7 +1672,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>38</v>
@@ -1676,14 +1689,14 @@
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="32">
-        <v>1000416</v>
+      <c r="B3" s="36">
+        <v>1000440</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E3" s="20">
         <v>1</v>
@@ -1711,11 +1724,11 @@
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="32">
-        <v>1000417</v>
+      <c r="B4" s="36">
+        <v>1000441</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>47</v>
@@ -1727,7 +1740,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>37</v>
@@ -1744,14 +1757,14 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="32">
-        <v>1000418</v>
+      <c r="B5" s="36">
+        <v>1000442</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E5" s="20">
         <v>1</v>
@@ -1777,14 +1790,14 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="32">
-        <v>1000419</v>
+      <c r="B6" s="36">
+        <v>1000443</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E6" s="20">
         <v>1</v>
@@ -1810,14 +1823,14 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="32">
-        <v>1000420</v>
+      <c r="B7" s="36">
+        <v>1000444</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7" s="20">
         <v>1</v>
@@ -1826,7 +1839,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>37</v>
@@ -1844,14 +1857,14 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="32">
-        <v>1000421</v>
+      <c r="B8" s="36">
+        <v>1000445</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
@@ -1860,10 +1873,10 @@
         <v>50</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I8" s="23"/>
     </row>
@@ -1871,14 +1884,14 @@
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="32">
-        <v>1000422</v>
+      <c r="B9" s="36">
+        <v>1000446</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E9" s="20">
         <v>1</v>
@@ -1887,10 +1900,10 @@
         <v>50</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I9" s="23"/>
     </row>
@@ -1898,11 +1911,11 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="32">
-        <v>1000423</v>
+      <c r="B10" s="36">
+        <v>1000447</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>46</v>
@@ -1914,10 +1927,10 @@
         <v>50</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I10" s="23"/>
     </row>
@@ -1925,14 +1938,14 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="32">
-        <v>1000424</v>
+      <c r="B11" s="36">
+        <v>1000448</v>
       </c>
       <c r="C11" s="20">
         <v>1</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E11" s="20">
         <v>1</v>
@@ -1941,10 +1954,10 @@
         <v>50</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I11" s="23"/>
     </row>
@@ -1952,14 +1965,14 @@
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="32">
-        <v>1000425</v>
+      <c r="B12" s="36">
+        <v>1000449</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
@@ -1971,7 +1984,7 @@
         <v>52</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I12" s="18"/>
     </row>
@@ -1979,14 +1992,14 @@
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="32">
-        <v>1000426</v>
+      <c r="B13" s="36">
+        <v>1000450</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
@@ -1995,7 +2008,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>34</v>
@@ -2006,14 +2019,14 @@
       <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="32">
-        <v>1000427</v>
+      <c r="B14" s="36">
+        <v>1000451</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
@@ -2022,7 +2035,7 @@
         <v>69</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>34</v>
@@ -2033,14 +2046,14 @@
       <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="32">
-        <v>1000428</v>
+      <c r="B15" s="36">
+        <v>1000452</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
@@ -2049,7 +2062,7 @@
         <v>69</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>33</v>
@@ -2060,14 +2073,14 @@
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="32">
-        <v>1000429</v>
+      <c r="B16" s="36">
+        <v>1000453</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
@@ -2076,7 +2089,7 @@
         <v>69</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>34</v>
@@ -2087,14 +2100,14 @@
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="32">
-        <v>1000430</v>
+      <c r="B17" s="36">
+        <v>1000454</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
@@ -2103,7 +2116,7 @@
         <v>69</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>34</v>
@@ -2114,8 +2127,8 @@
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="32">
-        <v>1000431</v>
+      <c r="B18" s="36">
+        <v>1000455</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>56</v>
@@ -2141,8 +2154,8 @@
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="32">
-        <v>1000432</v>
+      <c r="B19" s="36">
+        <v>1000456</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>57</v>
@@ -2168,8 +2181,8 @@
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="32">
-        <v>1000433</v>
+      <c r="B20" s="36">
+        <v>1000457</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>31</v>
@@ -2195,14 +2208,14 @@
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="32">
-        <v>1000434</v>
+      <c r="B21" s="36">
+        <v>1000458</v>
       </c>
       <c r="C21" s="14">
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E21" s="14">
         <v>1</v>
@@ -2222,8 +2235,8 @@
       <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="32">
-        <v>1000397</v>
+      <c r="B22" s="36">
+        <v>1000459</v>
       </c>
       <c r="C22" s="32">
         <v>3</v>
@@ -2249,8 +2262,8 @@
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="32">
-        <v>1000398</v>
+      <c r="B23" s="36">
+        <v>1000460</v>
       </c>
       <c r="C23" s="32">
         <v>3</v>
@@ -2276,8 +2289,8 @@
       <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="32">
-        <v>1000399</v>
+      <c r="B24" s="36">
+        <v>1000461</v>
       </c>
       <c r="C24" s="32">
         <v>3</v>
@@ -2303,8 +2316,8 @@
       <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="32">
-        <v>1000400</v>
+      <c r="B25" s="36">
+        <v>1000462</v>
       </c>
       <c r="C25" s="32">
         <v>3</v>
@@ -2330,8 +2343,8 @@
       <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="32">
-        <v>1000401</v>
+      <c r="B26" s="36">
+        <v>1000463</v>
       </c>
       <c r="C26" s="32">
         <v>3</v>
@@ -2356,7 +2369,7 @@
         <v>70</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>72</v>
@@ -2366,8 +2379,8 @@
       <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="32">
-        <v>1000402</v>
+      <c r="B27" s="36">
+        <v>1000464</v>
       </c>
       <c r="C27" s="32">
         <v>3</v>
@@ -2379,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>102</v>
@@ -2392,7 +2405,7 @@
         <v>71</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="O27" s="30" t="s">
         <v>72</v>
@@ -2402,8 +2415,8 @@
       <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="32">
-        <v>1000403</v>
+      <c r="B28" s="36">
+        <v>1000465</v>
       </c>
       <c r="C28" s="32">
         <v>3</v>
@@ -2415,10 +2428,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H28" s="31" t="s">
         <v>76</v>
@@ -2427,10 +2440,10 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="M28" s="32" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="M28" s="30" t="s">
+        <v>150</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -2438,8 +2451,8 @@
       <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="32">
-        <v>1000404</v>
+      <c r="B29" s="36">
+        <v>1000466</v>
       </c>
       <c r="C29" s="32">
         <v>3</v>
@@ -2454,7 +2467,7 @@
         <v>100</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H29" s="31" t="s">
         <v>77</v>
@@ -2467,8 +2480,8 @@
       <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="32">
-        <v>1000405</v>
+      <c r="B30" s="36">
+        <v>1000467</v>
       </c>
       <c r="C30" s="32">
         <v>3</v>
@@ -2483,7 +2496,7 @@
         <v>100</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H30" s="31" t="s">
         <v>73</v>
@@ -2494,8 +2507,8 @@
       <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="32">
-        <v>1000406</v>
+      <c r="B31" s="36">
+        <v>1000468</v>
       </c>
       <c r="C31" s="32">
         <v>3</v>
@@ -2507,24 +2520,24 @@
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H31" s="31" t="s">
         <v>74</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="32">
-        <v>1000407</v>
+      <c r="B32" s="36">
+        <v>1000469</v>
       </c>
       <c r="C32" s="32">
         <v>3</v>
@@ -2536,24 +2549,24 @@
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="33" t="s">
         <v>109</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>111</v>
       </c>
       <c r="H32" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="32">
-        <v>1000408</v>
+      <c r="B33" s="36">
+        <v>1000470</v>
       </c>
       <c r="C33" s="32">
         <v>3</v>
@@ -2565,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G33" s="33" t="s">
         <v>97</v>
@@ -2574,15 +2587,15 @@
         <v>74</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="32">
-        <v>1000409</v>
+      <c r="B34" s="36">
+        <v>1000471</v>
       </c>
       <c r="C34" s="32">
         <v>3</v>
@@ -2594,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>99</v>
@@ -2603,15 +2616,15 @@
         <v>73</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="32">
-        <v>1000410</v>
+      <c r="B35" s="36">
+        <v>1000472</v>
       </c>
       <c r="C35" s="32">
         <v>3</v>
@@ -2636,7 +2649,7 @@
         <v>70</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="O35" s="30" t="s">
         <v>72</v>
@@ -2646,8 +2659,8 @@
       <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="32">
-        <v>1000411</v>
+      <c r="B36" s="36">
+        <v>1000473</v>
       </c>
       <c r="C36" s="32">
         <v>3</v>
@@ -2659,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G36" s="33" t="s">
         <v>102</v>
@@ -2672,7 +2685,7 @@
         <v>71</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="O36" s="30" t="s">
         <v>72</v>
@@ -2682,8 +2695,8 @@
       <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="B37" s="32">
-        <v>1000412</v>
+      <c r="B37" s="36">
+        <v>1000474</v>
       </c>
       <c r="C37" s="32">
         <v>3</v>
@@ -2695,28 +2708,28 @@
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>74</v>
       </c>
       <c r="I37" s="31"/>
       <c r="L37" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="M37" s="32" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="M37" s="30" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="32">
-        <v>1000413</v>
+      <c r="B38" s="36">
+        <v>1000475</v>
       </c>
       <c r="C38" s="32">
         <v>3</v>
@@ -2728,24 +2741,24 @@
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H38" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B39" s="32">
-        <v>1000414</v>
+      <c r="B39" s="36">
+        <v>1000476</v>
       </c>
       <c r="C39" s="32">
         <v>3</v>
@@ -2757,16 +2770,16 @@
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H39" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">

--- a/config_3.30/activity_ty_task_config.xlsx
+++ b/config_3.30/activity_ty_task_config.xlsx
@@ -203,9 +203,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>yxfl_bg_1</t>
-  </si>
-  <si>
     <t>"game_Fishing3DHall",</t>
   </si>
   <si>
@@ -718,6 +715,10 @@
   <si>
     <t>"三只松鼠礼盒","进口橄榄油"</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgfl_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1237,7 +1238,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1280,13 +1281,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="26">
         <v>1</v>
@@ -1299,13 +1300,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="25">
         <v>2</v>
@@ -1316,13 +1317,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="25">
         <v>3</v>
@@ -1333,13 +1334,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="25">
         <v>4</v>
@@ -1350,13 +1351,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="25">
         <v>5</v>
@@ -1367,13 +1368,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="25">
         <v>6</v>
@@ -1434,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="28">
         <v>1</v>
@@ -1447,7 +1448,7 @@
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1455,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="28">
         <v>1</v>
@@ -1468,7 +1469,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1476,7 +1477,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="28">
         <v>1</v>
@@ -1489,7 +1490,7 @@
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1497,7 +1498,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="25">
         <v>1</v>
@@ -1510,7 +1511,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1518,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="28">
         <v>1</v>
@@ -1531,7 +1532,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1539,7 +1540,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="25">
         <v>1</v>
@@ -1552,7 +1553,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
@@ -1619,7 +1620,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
@@ -1660,22 +1661,22 @@
         <v>1000439</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="20">
+        <v>1</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="20">
-        <v>1</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="G2" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="23"/>
       <c r="M2" s="10"/>
@@ -1696,19 +1697,19 @@
         <v>35</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" s="20">
         <v>1</v>
       </c>
       <c r="F3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>51</v>
-      </c>
       <c r="H3" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="23"/>
       <c r="J3" s="10"/>
@@ -1728,22 +1729,22 @@
         <v>1000441</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="20">
         <v>1</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="23"/>
       <c r="J4" s="10"/>
@@ -1761,22 +1762,22 @@
         <v>1000442</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="20">
         <v>1</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="10"/>
@@ -1794,22 +1795,22 @@
         <v>1000443</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="20">
         <v>1</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="10"/>
@@ -1827,22 +1828,22 @@
         <v>1000444</v>
       </c>
       <c r="C7" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="20">
-        <v>1</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="G7" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="10"/>
@@ -1861,22 +1862,22 @@
         <v>1000445</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I8" s="23"/>
     </row>
@@ -1888,22 +1889,22 @@
         <v>1000446</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="20">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="G9" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I9" s="23"/>
     </row>
@@ -1915,22 +1916,22 @@
         <v>1000447</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="20">
         <v>1</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I10" s="23"/>
     </row>
@@ -1945,19 +1946,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="20">
         <v>1</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I11" s="23"/>
     </row>
@@ -1969,22 +1970,22 @@
         <v>1000449</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I12" s="18"/>
     </row>
@@ -1996,19 +1997,19 @@
         <v>1000450</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>34</v>
@@ -2023,19 +2024,19 @@
         <v>1000451</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>34</v>
@@ -2050,19 +2051,19 @@
         <v>1000452</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>33</v>
@@ -2080,16 +2081,16 @@
         <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>34</v>
@@ -2104,19 +2105,19 @@
         <v>1000454</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>34</v>
@@ -2131,19 +2132,19 @@
         <v>1000455</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="14">
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H18" s="18" t="s">
         <v>34</v>
@@ -2158,19 +2159,19 @@
         <v>1000456</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="14">
         <v>1</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" s="18" t="s">
         <v>34</v>
@@ -2188,16 +2189,16 @@
         <v>31</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="14">
         <v>1</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>34</v>
@@ -2215,16 +2216,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E21" s="14">
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>34</v>
@@ -2242,19 +2243,19 @@
         <v>3</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="32">
         <v>1</v>
       </c>
       <c r="F22" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="33" t="s">
-        <v>96</v>
-      </c>
       <c r="H22" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22" s="31"/>
     </row>
@@ -2269,19 +2270,19 @@
         <v>3</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="32">
         <v>1</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="31"/>
     </row>
@@ -2296,19 +2297,19 @@
         <v>3</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="32">
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="31"/>
     </row>
@@ -2323,19 +2324,19 @@
         <v>3</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="32">
         <v>1</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I25" s="31"/>
     </row>
@@ -2350,29 +2351,29 @@
         <v>3</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="32">
         <v>1</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I26" s="31"/>
       <c r="L26" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
@@ -2386,29 +2387,29 @@
         <v>3</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="32">
         <v>1</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I27" s="31"/>
       <c r="L27" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M27" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="O27" s="30" t="s">
         <v>71</v>
-      </c>
-      <c r="M27" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="O27" s="30" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
@@ -2422,28 +2423,28 @@
         <v>3</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" s="32">
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -2458,19 +2459,19 @@
         <v>3</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="32">
         <v>1</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I29" s="31"/>
       <c r="L29" s="9"/>
@@ -2487,19 +2488,19 @@
         <v>3</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" s="32">
         <v>1</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I30" s="31"/>
     </row>
@@ -2514,22 +2515,22 @@
         <v>3</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" s="32">
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="33" t="s">
-        <v>108</v>
-      </c>
       <c r="H31" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -2543,22 +2544,22 @@
         <v>3</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="32">
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
@@ -2572,22 +2573,22 @@
         <v>3</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33" s="32">
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -2601,22 +2602,22 @@
         <v>3</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34" s="32">
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -2630,29 +2631,29 @@
         <v>3</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" s="32">
         <v>1</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I35" s="31"/>
       <c r="L35" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O35" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
@@ -2666,29 +2667,29 @@
         <v>3</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" s="32">
         <v>1</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I36" s="31"/>
       <c r="L36" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M36" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="O36" s="30" t="s">
         <v>71</v>
-      </c>
-      <c r="M36" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="O36" s="30" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
@@ -2702,26 +2703,26 @@
         <v>3</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E37" s="32">
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I37" s="31"/>
       <c r="L37" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -2735,22 +2736,22 @@
         <v>3</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38" s="32">
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -2764,22 +2765,22 @@
         <v>3</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E39" s="32">
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
